--- a/Integral/ошибки (исключения).xlsx
+++ b/Integral/ошибки (исключения).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>ПРОБЛЕМА</t>
   </si>
@@ -27,16 +27,46 @@
     <t xml:space="preserve">Нерешено </t>
   </si>
   <si>
-    <t>Триганометрические уравнения</t>
-  </si>
-  <si>
     <t>Деление на нуль</t>
   </si>
   <si>
-    <t>Дробные значения</t>
-  </si>
-  <si>
     <t>Точка или запятая у float</t>
+  </si>
+  <si>
+    <t>Пустая строка для уравнения</t>
+  </si>
+  <si>
+    <t>Пустые строки для границ интеграла</t>
+  </si>
+  <si>
+    <t>v 0.5.1</t>
+  </si>
+  <si>
+    <t>Незаконченный график</t>
+  </si>
+  <si>
+    <t>График не в виджете окна</t>
+  </si>
+  <si>
+    <t>Буквы и лишние символы в строках для границ интеграла</t>
+  </si>
+  <si>
+    <t>Просто числа в строке для уравнения</t>
+  </si>
+  <si>
+    <t>Нет возможности вводить триганометрические уравнения</t>
+  </si>
+  <si>
+    <t>Версия обновления</t>
+  </si>
+  <si>
+    <t>Нефиксированный размер окна</t>
+  </si>
+  <si>
+    <t>Пустые строки для границ интеграла (три раза всплывает окно ошибки)</t>
+  </si>
+  <si>
+    <t>Пустая строка для уравнения (три раза всплывает окно ошибки)</t>
   </si>
 </sst>
 </file>
@@ -53,7 +83,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -62,19 +92,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -93,24 +129,31 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,54 +442,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D13">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>

--- a/Integral/ошибки (исключения).xlsx
+++ b/Integral/ошибки (исключения).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>ПРОБЛЕМА</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Пустая строка для уравнения (три раза всплывает окно ошибки)</t>
+  </si>
+  <si>
+    <t>v 0.5.2</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -503,43 +506,49 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
